--- a/Data/pvs_updated_Jun2023.xlsx
+++ b/Data/pvs_updated_Jun2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ECB business areas\DGE\DMP\CMT\Analytical tools\Zone\TilmanWolfgang\Equilibrium models\Codes_BLR-main\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrenne/Dropbox/Research/ECB/Codes_BLR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1D250-6921-45EC-898A-ECD27D4FEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD2C59-25AB-C540-93F0-BC8A61F716D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -607,7 +607,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
@@ -615,7 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
@@ -727,7 +726,7 @@
             <c:numRef>
               <c:f>pvs!$A$2:$A$214</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="213"/>
                 <c:pt idx="0">
                   <c:v>25749</c:v>
@@ -2045,7 +2044,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2825,9 +2824,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2865,7 +2864,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2971,7 +2970,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3113,7 +3112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3127,26 +3126,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.875" style="3"/>
+    <col min="1" max="1" width="36.1640625" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="119" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3168,9 +3167,9 @@
       <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>25749</v>
       </c>
@@ -3186,7 +3185,7 @@
         <v>4.9753101329922E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>25841</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>-0.24251779494101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>25933</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>-0.44386007277430001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>26023</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>-0.32586604641432998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>26114</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>-0.17766212288052</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>26206</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>-0.28648396435071999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>26298</v>
       </c>
@@ -3234,7 +3233,7 @@
         <v>-0.39276002683156003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>26389</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>-0.11571746614577</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>26480</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>-3.2014563556786002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>26572</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>-0.15636388267158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>26664</v>
       </c>
@@ -3266,7 +3265,7 @@
         <v>-0.39097995123995</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>26754</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>-0.15851054977223999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>26845</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>-0.25474788531532999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>26937</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>-0.45540595900748998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>27029</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>-0.57210257661153996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>27119</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>-0.71305338088313996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>27210</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>-0.64701100403775003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>27302</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>-0.70860772634586</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>27394</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>-1.4076928065908001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>27484</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>-1.2241196408407</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>27575</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>-0.81766632860498001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>27667</v>
       </c>
@@ -3354,7 +3353,7 @@
         <v>-0.40641532503514999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>27759</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>-0.79974697198343003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>27850</v>
       </c>
@@ -3370,7 +3369,7 @@
         <v>-0.73221091222675005</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>27941</v>
       </c>
@@ -3378,7 +3377,7 @@
         <v>-0.29065117305406002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>28033</v>
       </c>
@@ -3386,7 +3385,7 @@
         <v>-0.44977343135997999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>28125</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>-0.62243070140877998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28215</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>-0.46256547332051001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28306</v>
       </c>
@@ -3410,7 +3409,7 @@
         <v>-0.29133028860735999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>28398</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>-0.39977351430871</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>28490</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>-0.47345916426772</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>28580</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>-0.33554639187313001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>28671</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>-0.11277810775746</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>28763</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>7.4587165819184995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>28855</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>0.15744597800745999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>28945</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>-2.3956016670218998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>29036</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>2.5854596295403001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>29128</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>6.9106859849325006E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>29220</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>6.7893625282385003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>29311</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>0.38643701298597999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>29402</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>0.19395082058641</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>29494</v>
       </c>
@@ -3514,7 +3513,7 @@
         <v>0.36955505433571001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>29586</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>0.45683386548735999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>29676</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>0.44363595337099998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>29767</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>0.48199185158645003</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>29859</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>0.63728904385564</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>29951</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>0.31217014704144003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>30041</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>0.45390835317584999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>30132</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>0.4368418195912</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>30224</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>0.33636707447610997</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>30316</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>0.33635729637107997</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>30406</v>
       </c>
@@ -3594,7 +3593,7 @@
         <v>0.36740020584837002</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>30497</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>0.47208141772140999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>30589</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>0.52476452076016999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>30681</v>
       </c>
@@ -3618,7 +3617,7 @@
         <v>0.39643751932642002</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>30772</v>
       </c>
@@ -3626,7 +3625,7 @@
         <v>0.47407192731398001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>30863</v>
       </c>
@@ -3634,7 +3633,7 @@
         <v>0.34407563617422998</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>30955</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>0.31388795640902001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>31047</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>0.17348685775469999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>31137</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>0.19802414842815</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>31228</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>0.19300508648409001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>31320</v>
       </c>
@@ -3674,7 +3673,7 @@
         <v>4.7604135533878003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>31412</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>3.0254963517127999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>31502</v>
       </c>
@@ -3690,7 +3689,7 @@
         <v>4.3924402839530001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>31593</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>8.8472389494970993E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>31685</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>4.7493963528084999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>31777</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>-0.12477061327386001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>31867</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>-1.5657271340556E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>31958</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>1.2021474771524E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>32050</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>0.13126822785292</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>32142</v>
       </c>
@@ -3746,7 +3745,7 @@
         <v>2.2476807444265001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>32233</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>-6.3492330212420997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>32324</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>-6.1411366034625998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>32416</v>
       </c>
@@ -3770,7 +3769,7 @@
         <v>-3.9852832064303997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>32508</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>-0.10950775423001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>32598</v>
       </c>
@@ -3786,7 +3785,7 @@
         <v>-4.3282108549143002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>32689</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>-6.9437269540551003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>32781</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>-8.8056417908987994E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>32873</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>-0.23691718014394</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>32963</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>-0.17958867047624</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>33054</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>-0.22318681448104999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>33146</v>
       </c>
@@ -3834,7 +3833,7 @@
         <v>-0.34888297809341001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>33238</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>-0.94546416860542004</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>33328</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>-0.79108960710932996</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>33419</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>-0.42192852248237001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>33511</v>
       </c>
@@ -3866,7 +3865,7 @@
         <v>-0.39327058270641002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>33603</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>-0.50640703678029997</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>33694</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>-0.28606166902976998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>33785</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>-0.23433733109220001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>33877</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>-0.31577046510156997</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>33969</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>-0.41440180131024001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>34059</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>-0.17711812340899</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>34150</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>-0.22868365345319</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>34242</v>
       </c>
@@ -3930,7 +3929,7 @@
         <v>-0.19743719851416999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>34334</v>
       </c>
@@ -3938,7 +3937,7 @@
         <v>-0.14339833790689999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>34424</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>-5.4519308931659002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>34515</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>1.8156494043777002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>34607</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>-2.4461252895149999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>34699</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>-9.9523667218927997E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>34789</v>
       </c>
@@ -3978,7 +3977,7 @@
         <v>-0.11513398862951001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>34880</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>-4.0667398812397997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>34972</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>-6.0005836107922997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>35064</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>-6.9594898777390002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>35155</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>-4.3548991964885E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>35246</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>3.7337027735848002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>35338</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>2.9667175918246001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>35430</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>-6.4171573144889998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>35520</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>-2.6195614972542001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>35611</v>
       </c>
@@ -4050,7 +4049,7 @@
         <v>-4.9396830575958998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>35703</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>-6.7968603517765E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>35795</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>-5.3586837482922998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>35885</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>-8.8841575321042004E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>35976</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>-6.2343322280088001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>36068</v>
       </c>
@@ -4090,7 +4089,7 @@
         <v>-2.8999693049229999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>36160</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>-0.26090867334762002</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>36250</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>-0.17780131902488999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>36341</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>-0.1259493630329</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>36433</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>-4.1642325907479003E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>36525</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>-8.8870743745639996E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>36616</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>0.25402222672599001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>36707</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>0.20312926268073001</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>36799</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>-6.2266408046716001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>36891</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>-0.14860790981384001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>36981</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>-0.25341497916932998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>37072</v>
       </c>
@@ -4178,7 +4177,7 @@
         <v>-0.30025280231513002</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>37164</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>-0.49969542550749002</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>37256</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>-0.66217116756493999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>37346</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>-0.54036777437898997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>37437</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>-0.35625936179121998</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>37529</v>
       </c>
@@ -4218,7 +4217,7 @@
         <v>-0.48413671500730998</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>37621</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>-0.77443922344677996</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>37711</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>-0.60869987185664998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>37802</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>-0.52263907818592004</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>37894</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>-0.16098900279629999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>37986</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>-9.1724634504196004E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>38077</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>5.9586795509592998E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>38168</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>7.0500830887778004E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>38260</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>2.2005022619154001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>38352</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>1.2387241881583E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>38442</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>6.2591311604912006E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>38533</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>-2.7431071446558999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>38625</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>2.4033664399069E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>38717</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>3.6239575853028998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>38807</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>5.6546437782202003E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>38898</v>
       </c>
@@ -4338,7 +4337,7 @@
         <v>0.13100219801435001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>38990</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>8.5661294021946E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>39082</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>5.7659384208541997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>39172</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>9.8088738146949003E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>39263</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>7.6492286043752994E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>39355</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>2.1604154863096999E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>39447</v>
       </c>
@@ -4386,7 +4385,7 @@
         <v>-0.14133816282309</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>39538</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>-0.16830100043335999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>39629</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>-0.36583940337963</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>39721</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>-0.50877561301501995</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>39813</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>-0.97581052515046995</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>39903</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>-1.7201647454374001</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>39994</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>-1.5846851407103</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>40086</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>-0.99151284027819997</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>40178</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>-0.85110368794044</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>40268</v>
       </c>
@@ -4458,7 +4457,7 @@
         <v>-0.56031175630315</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>40359</v>
       </c>
@@ -4466,7 +4465,7 @@
         <v>-0.32125192059597002</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>40451</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>-0.38738040567415999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>40543</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>-0.44417301167266998</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>40633</v>
       </c>
@@ -4490,7 +4489,7 @@
         <v>-0.17269988252967</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>40724</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>-0.18438058502262</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>40816</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>-9.9046886271558998E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>40908</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>-0.47265711152389001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>40999</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>-0.52003571643159996</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41090</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>-0.34463424458849001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41182</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>-0.44282780023802998</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41274</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>-0.48007279424956001</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41364</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>-0.32772057493187001</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41455</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>-0.26036232745331001</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41547</v>
       </c>
@@ -4570,7 +4569,7 @@
         <v>-0.30657068628377998</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41639</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>-0.14876036604609999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41729</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>1.5545089918766001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41820</v>
       </c>
@@ -4594,7 +4593,7 @@
         <v>-3.7828648002423998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41912</v>
       </c>
@@ -4602,7 +4601,7 @@
         <v>-7.5607952407114001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>42004</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>-0.23612727906079001</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>42094</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>-0.25202808364950002</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>42185</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>-0.29470506918938999</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>42277</v>
       </c>
@@ -4634,7 +4633,7 @@
         <v>-0.24508599616443999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>42369</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>-0.42042623914124999</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>42460</v>
       </c>
@@ -4650,7 +4649,7 @@
         <v>-0.40751204820362003</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>42551</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>-0.42771786570101</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>42643</v>
       </c>
@@ -4666,7 +4665,7 @@
         <v>-0.31415685034023</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>42735</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>-0.34744902117164</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>42825</v>
       </c>
@@ -4682,7 +4681,7 @@
         <v>-0.29298505031595001</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>42916</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>-0.28991773667675003</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>43008</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>-0.31950938706038001</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>43100</v>
       </c>
@@ -4706,7 +4705,7 @@
         <v>-0.27098117527475002</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>43190</v>
       </c>
@@ -4714,7 +4713,7 @@
         <v>-8.9139613581860996E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>43281</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>-0.16456941676025999</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>43373</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>-0.10423262782179001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>43465</v>
       </c>
@@ -4738,7 +4737,7 @@
         <v>-0.13631461516443</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>43555</v>
       </c>
@@ -4746,7 +4745,7 @@
         <v>-0.26319780250864</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>43646</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>-0.23658163484019001</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>43738</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>-0.3920905457503</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>43830</v>
       </c>
@@ -4770,7 +4769,7 @@
         <v>-0.51515989472212997</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>43921</v>
       </c>
@@ -4778,7 +4777,7 @@
         <v>-0.44006573478274003</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44012</v>
       </c>
@@ -4786,7 +4785,7 @@
         <v>-0.87807609242249995</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44104</v>
       </c>
@@ -4794,7 +4793,7 @@
         <v>-0.44644354539885001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44196</v>
       </c>
@@ -4802,7 +4801,7 @@
         <v>-0.37164357010104998</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44286</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>5.3124955847162002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44377</v>
       </c>
@@ -4818,7 +4817,7 @@
         <v>2.3482889681016E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44469</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>9.0043860212062996E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44561</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>0.11065301785116</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44651</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>0.12529086269553999</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44742</v>
       </c>
@@ -4850,7 +4849,7 @@
         <v>1.9068744796882E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44834</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>-0.18381489586232999</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44926</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>-0.33585238119475003</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>45016</v>
       </c>
@@ -4874,7 +4873,7 @@
         <v>-0.49802692732136999</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>45107</v>
       </c>
@@ -4893,17 +4892,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031AC69C-72AB-459B-8DBC-408AE129B425}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="K196" sqref="K196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4913,8 +4912,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>25749</v>
       </c>
       <c r="B2">
@@ -4926,8 +4925,8 @@
         <v>-4.9753101329922E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>25841</v>
       </c>
       <c r="B3">
@@ -4939,8 +4938,8 @@
         <v>0.24251779494101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>25933</v>
       </c>
       <c r="B4">
@@ -4952,8 +4951,8 @@
         <v>0.44386007277430001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>26023</v>
       </c>
       <c r="B5">
@@ -4965,8 +4964,8 @@
         <v>0.32586604641432998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>26114</v>
       </c>
       <c r="B6">
@@ -4978,8 +4977,8 @@
         <v>0.17766212288052</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>26206</v>
       </c>
       <c r="B7">
@@ -4991,8 +4990,8 @@
         <v>0.28648396435071999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>26298</v>
       </c>
       <c r="B8">
@@ -5004,8 +5003,8 @@
         <v>0.39276002683156003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>26389</v>
       </c>
       <c r="B9">
@@ -5017,8 +5016,8 @@
         <v>0.11571746614577</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>26480</v>
       </c>
       <c r="B10">
@@ -5030,8 +5029,8 @@
         <v>3.2014563556786002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>26572</v>
       </c>
       <c r="B11">
@@ -5043,8 +5042,8 @@
         <v>0.15636388267158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>26664</v>
       </c>
       <c r="B12">
@@ -5056,8 +5055,8 @@
         <v>0.39097995123995</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>26754</v>
       </c>
       <c r="B13">
@@ -5069,8 +5068,8 @@
         <v>0.15851054977223999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>26845</v>
       </c>
       <c r="B14">
@@ -5082,8 +5081,8 @@
         <v>0.25474788531532999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>26937</v>
       </c>
       <c r="B15">
@@ -5095,8 +5094,8 @@
         <v>0.45540595900748998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>27029</v>
       </c>
       <c r="B16">
@@ -5108,8 +5107,8 @@
         <v>0.57210257661153996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>27119</v>
       </c>
       <c r="B17">
@@ -5121,8 +5120,8 @@
         <v>0.71305338088313996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>27210</v>
       </c>
       <c r="B18">
@@ -5134,8 +5133,8 @@
         <v>0.64701100403775003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>27302</v>
       </c>
       <c r="B19">
@@ -5147,8 +5146,8 @@
         <v>0.70860772634586</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>27394</v>
       </c>
       <c r="B20">
@@ -5160,8 +5159,8 @@
         <v>1.4076928065908001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>27484</v>
       </c>
       <c r="B21">
@@ -5173,8 +5172,8 @@
         <v>1.2241196408407</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>27575</v>
       </c>
       <c r="B22">
@@ -5186,8 +5185,8 @@
         <v>0.81766632860498001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>27667</v>
       </c>
       <c r="B23">
@@ -5199,8 +5198,8 @@
         <v>0.40641532503514999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>27759</v>
       </c>
       <c r="B24">
@@ -5212,8 +5211,8 @@
         <v>0.79974697198343003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>27850</v>
       </c>
       <c r="B25">
@@ -5225,8 +5224,8 @@
         <v>0.73221091222675005</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>27941</v>
       </c>
       <c r="B26">
@@ -5238,8 +5237,8 @@
         <v>0.29065117305406002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>28033</v>
       </c>
       <c r="B27">
@@ -5251,8 +5250,8 @@
         <v>0.44977343135997999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>28125</v>
       </c>
       <c r="B28">
@@ -5264,8 +5263,8 @@
         <v>0.62243070140877998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28215</v>
       </c>
       <c r="B29">
@@ -5277,8 +5276,8 @@
         <v>0.46256547332051001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28306</v>
       </c>
       <c r="B30">
@@ -5290,8 +5289,8 @@
         <v>0.29133028860735999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>28398</v>
       </c>
       <c r="B31">
@@ -5303,8 +5302,8 @@
         <v>0.39977351430871</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>28490</v>
       </c>
       <c r="B32">
@@ -5316,8 +5315,8 @@
         <v>0.47345916426772</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>28580</v>
       </c>
       <c r="B33">
@@ -5329,8 +5328,8 @@
         <v>0.33554639187313001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>28671</v>
       </c>
       <c r="B34">
@@ -5342,8 +5341,8 @@
         <v>0.11277810775746</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>28763</v>
       </c>
       <c r="B35">
@@ -5355,8 +5354,8 @@
         <v>-7.4587165819184995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>28855</v>
       </c>
       <c r="B36">
@@ -5368,8 +5367,8 @@
         <v>-0.15744597800745999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>28945</v>
       </c>
       <c r="B37">
@@ -5381,8 +5380,8 @@
         <v>2.3956016670218998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>29036</v>
       </c>
       <c r="B38">
@@ -5394,8 +5393,8 @@
         <v>-2.5854596295403001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>29128</v>
       </c>
       <c r="B39">
@@ -5407,8 +5406,8 @@
         <v>-6.9106859849325006E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>29220</v>
       </c>
       <c r="B40">
@@ -5420,8 +5419,8 @@
         <v>-6.7893625282385003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>29311</v>
       </c>
       <c r="B41">
@@ -5433,8 +5432,8 @@
         <v>-0.38643701298597999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>29402</v>
       </c>
       <c r="B42">
@@ -5446,8 +5445,8 @@
         <v>-0.19395082058641</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>29494</v>
       </c>
       <c r="B43">
@@ -5459,8 +5458,8 @@
         <v>-0.36955505433571001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>29586</v>
       </c>
       <c r="B44">
@@ -5472,8 +5471,8 @@
         <v>-0.45683386548735999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>29676</v>
       </c>
       <c r="B45">
@@ -5485,8 +5484,8 @@
         <v>-0.44363595337099998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>29767</v>
       </c>
       <c r="B46">
@@ -5498,8 +5497,8 @@
         <v>-0.48199185158645003</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>29859</v>
       </c>
       <c r="B47">
@@ -5511,8 +5510,8 @@
         <v>-0.63728904385564</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>29951</v>
       </c>
       <c r="B48">
@@ -5524,8 +5523,8 @@
         <v>-0.31217014704144003</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>30041</v>
       </c>
       <c r="B49">
@@ -5537,8 +5536,8 @@
         <v>-0.45390835317584999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>30132</v>
       </c>
       <c r="B50">
@@ -5550,8 +5549,8 @@
         <v>-0.4368418195912</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>30224</v>
       </c>
       <c r="B51">
@@ -5563,8 +5562,8 @@
         <v>-0.33636707447610997</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>30316</v>
       </c>
       <c r="B52">
@@ -5576,8 +5575,8 @@
         <v>-0.33635729637107997</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>30406</v>
       </c>
       <c r="B53">
@@ -5589,8 +5588,8 @@
         <v>-0.36740020584837002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>30497</v>
       </c>
       <c r="B54">
@@ -5602,8 +5601,8 @@
         <v>-0.47208141772140999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>30589</v>
       </c>
       <c r="B55">
@@ -5615,8 +5614,8 @@
         <v>-0.52476452076016999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>30681</v>
       </c>
       <c r="B56">
@@ -5628,8 +5627,8 @@
         <v>-0.39643751932642002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>30772</v>
       </c>
       <c r="B57">
@@ -5641,8 +5640,8 @@
         <v>-0.47407192731398001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>30863</v>
       </c>
       <c r="B58">
@@ -5654,8 +5653,8 @@
         <v>-0.34407563617422998</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
         <v>30955</v>
       </c>
       <c r="B59">
@@ -5667,8 +5666,8 @@
         <v>-0.31388795640902001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
         <v>31047</v>
       </c>
       <c r="B60">
@@ -5680,8 +5679,8 @@
         <v>-0.17348685775469999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
         <v>31137</v>
       </c>
       <c r="B61">
@@ -5693,8 +5692,8 @@
         <v>-0.19802414842815</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
         <v>31228</v>
       </c>
       <c r="B62">
@@ -5706,8 +5705,8 @@
         <v>-0.19300508648409001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
         <v>31320</v>
       </c>
       <c r="B63">
@@ -5719,8 +5718,8 @@
         <v>-4.7604135533878003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
         <v>31412</v>
       </c>
       <c r="B64">
@@ -5732,8 +5731,8 @@
         <v>-3.0254963517127999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
         <v>31502</v>
       </c>
       <c r="B65">
@@ -5745,8 +5744,8 @@
         <v>-4.3924402839530001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
         <v>31593</v>
       </c>
       <c r="B66">
@@ -5758,8 +5757,8 @@
         <v>-8.8472389494970993E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
         <v>31685</v>
       </c>
       <c r="B67">
@@ -5771,8 +5770,8 @@
         <v>-4.7493963528084999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
         <v>31777</v>
       </c>
       <c r="B68">
@@ -5784,8 +5783,8 @@
         <v>0.12477061327386001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>31867</v>
       </c>
       <c r="B69">
@@ -5797,8 +5796,8 @@
         <v>1.5657271340556E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
         <v>31958</v>
       </c>
       <c r="B70">
@@ -5810,8 +5809,8 @@
         <v>-1.2021474771524E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>32050</v>
       </c>
       <c r="B71">
@@ -5823,8 +5822,8 @@
         <v>-0.13126822785292</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
         <v>32142</v>
       </c>
       <c r="B72">
@@ -5836,8 +5835,8 @@
         <v>-2.2476807444265001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
         <v>32233</v>
       </c>
       <c r="B73">
@@ -5849,8 +5848,8 @@
         <v>6.3492330212420997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
         <v>32324</v>
       </c>
       <c r="B74">
@@ -5862,8 +5861,8 @@
         <v>6.1411366034625998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
         <v>32416</v>
       </c>
       <c r="B75">
@@ -5875,8 +5874,8 @@
         <v>3.9852832064303997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
         <v>32508</v>
       </c>
       <c r="B76">
@@ -5888,8 +5887,8 @@
         <v>0.10950775423001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
         <v>32598</v>
       </c>
       <c r="B77">
@@ -5901,8 +5900,8 @@
         <v>4.3282108549143002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
         <v>32689</v>
       </c>
       <c r="B78">
@@ -5914,8 +5913,8 @@
         <v>6.9437269540551003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
         <v>32781</v>
       </c>
       <c r="B79">
@@ -5927,8 +5926,8 @@
         <v>8.8056417908987994E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
         <v>32873</v>
       </c>
       <c r="B80">
@@ -5940,8 +5939,8 @@
         <v>0.23691718014394</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
         <v>32963</v>
       </c>
       <c r="B81">
@@ -5953,8 +5952,8 @@
         <v>0.17958867047624</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
         <v>33054</v>
       </c>
       <c r="B82">
@@ -5966,8 +5965,8 @@
         <v>0.22318681448104999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
         <v>33146</v>
       </c>
       <c r="B83">
@@ -5979,8 +5978,8 @@
         <v>0.34888297809341001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
         <v>33238</v>
       </c>
       <c r="B84">
@@ -5992,8 +5991,8 @@
         <v>0.94546416860542004</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
         <v>33328</v>
       </c>
       <c r="B85">
@@ -6005,8 +6004,8 @@
         <v>0.79108960710932996</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
         <v>33419</v>
       </c>
       <c r="B86">
@@ -6018,8 +6017,8 @@
         <v>0.42192852248237001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
         <v>33511</v>
       </c>
       <c r="B87">
@@ -6031,8 +6030,8 @@
         <v>0.39327058270641002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
         <v>33603</v>
       </c>
       <c r="B88">
@@ -6044,8 +6043,8 @@
         <v>0.50640703678029997</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
         <v>33694</v>
       </c>
       <c r="B89">
@@ -6057,8 +6056,8 @@
         <v>0.28606166902976998</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
         <v>33785</v>
       </c>
       <c r="B90">
@@ -6070,8 +6069,8 @@
         <v>0.23433733109220001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
         <v>33877</v>
       </c>
       <c r="B91">
@@ -6083,8 +6082,8 @@
         <v>0.31577046510156997</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
         <v>33969</v>
       </c>
       <c r="B92">
@@ -6096,8 +6095,8 @@
         <v>0.41440180131024001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
         <v>34059</v>
       </c>
       <c r="B93">
@@ -6109,8 +6108,8 @@
         <v>0.17711812340899</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
         <v>34150</v>
       </c>
       <c r="B94">
@@ -6122,8 +6121,8 @@
         <v>0.22868365345319</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
         <v>34242</v>
       </c>
       <c r="B95">
@@ -6135,8 +6134,8 @@
         <v>0.19743719851416999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
         <v>34334</v>
       </c>
       <c r="B96">
@@ -6148,8 +6147,8 @@
         <v>0.14339833790689999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
         <v>34424</v>
       </c>
       <c r="B97">
@@ -6161,8 +6160,8 @@
         <v>5.4519308931659002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
         <v>34515</v>
       </c>
       <c r="B98">
@@ -6174,8 +6173,8 @@
         <v>-1.8156494043777002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
         <v>34607</v>
       </c>
       <c r="B99">
@@ -6187,8 +6186,8 @@
         <v>2.4461252895149999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
         <v>34699</v>
       </c>
       <c r="B100">
@@ -6200,8 +6199,8 @@
         <v>9.9523667218927997E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
         <v>34789</v>
       </c>
       <c r="B101">
@@ -6213,8 +6212,8 @@
         <v>0.11513398862951001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
         <v>34880</v>
       </c>
       <c r="B102">
@@ -6226,8 +6225,8 @@
         <v>4.0667398812397997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
         <v>34972</v>
       </c>
       <c r="B103">
@@ -6239,8 +6238,8 @@
         <v>6.0005836107922997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
         <v>35064</v>
       </c>
       <c r="B104">
@@ -6252,8 +6251,8 @@
         <v>6.9594898777390002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
         <v>35155</v>
       </c>
       <c r="B105">
@@ -6265,8 +6264,8 @@
         <v>4.3548991964885E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
         <v>35246</v>
       </c>
       <c r="B106">
@@ -6278,8 +6277,8 @@
         <v>-3.7337027735848002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
         <v>35338</v>
       </c>
       <c r="B107">
@@ -6291,8 +6290,8 @@
         <v>-2.9667175918246001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
         <v>35430</v>
       </c>
       <c r="B108">
@@ -6304,8 +6303,8 @@
         <v>6.4171573144889998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>35520</v>
       </c>
       <c r="B109">
@@ -6317,8 +6316,8 @@
         <v>2.6195614972542001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
         <v>35611</v>
       </c>
       <c r="B110">
@@ -6330,8 +6329,8 @@
         <v>4.9396830575958998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
         <v>35703</v>
       </c>
       <c r="B111">
@@ -6343,8 +6342,8 @@
         <v>6.7968603517765E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
         <v>35795</v>
       </c>
       <c r="B112">
@@ -6356,8 +6355,8 @@
         <v>5.3586837482922998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
         <v>35885</v>
       </c>
       <c r="B113">
@@ -6369,8 +6368,8 @@
         <v>8.8841575321042004E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
         <v>35976</v>
       </c>
       <c r="B114">
@@ -6382,8 +6381,8 @@
         <v>6.2343322280088001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
         <v>36068</v>
       </c>
       <c r="B115">
@@ -6395,8 +6394,8 @@
         <v>2.8999693049229999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
         <v>36160</v>
       </c>
       <c r="B116">
@@ -6408,8 +6407,8 @@
         <v>0.26090867334762002</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
         <v>36250</v>
       </c>
       <c r="B117">
@@ -6421,8 +6420,8 @@
         <v>0.17780131902488999</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
         <v>36341</v>
       </c>
       <c r="B118">
@@ -6434,8 +6433,8 @@
         <v>0.1259493630329</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
         <v>36433</v>
       </c>
       <c r="B119">
@@ -6447,8 +6446,8 @@
         <v>4.1642325907479003E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
         <v>36525</v>
       </c>
       <c r="B120">
@@ -6460,8 +6459,8 @@
         <v>8.8870743745639996E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
         <v>36616</v>
       </c>
       <c r="B121">
@@ -6473,8 +6472,8 @@
         <v>-0.25402222672599001</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
         <v>36707</v>
       </c>
       <c r="B122">
@@ -6486,8 +6485,8 @@
         <v>-0.20312926268073001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
         <v>36799</v>
       </c>
       <c r="B123">
@@ -6499,8 +6498,8 @@
         <v>6.2266408046716001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
         <v>36891</v>
       </c>
       <c r="B124">
@@ -6512,8 +6511,8 @@
         <v>0.14860790981384001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
         <v>36981</v>
       </c>
       <c r="B125">
@@ -6525,8 +6524,8 @@
         <v>0.25341497916932998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
         <v>37072</v>
       </c>
       <c r="B126">
@@ -6538,8 +6537,8 @@
         <v>0.30025280231513002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
         <v>37164</v>
       </c>
       <c r="B127">
@@ -6551,8 +6550,8 @@
         <v>0.49969542550749002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
         <v>37256</v>
       </c>
       <c r="B128">
@@ -6564,8 +6563,8 @@
         <v>0.66217116756493999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
         <v>37346</v>
       </c>
       <c r="B129">
@@ -6577,8 +6576,8 @@
         <v>0.54036777437898997</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
         <v>37437</v>
       </c>
       <c r="B130">
@@ -6590,8 +6589,8 @@
         <v>0.35625936179121998</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
         <v>37529</v>
       </c>
       <c r="B131">
@@ -6603,8 +6602,8 @@
         <v>0.48413671500730998</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
         <v>37621</v>
       </c>
       <c r="B132">
@@ -6616,8 +6615,8 @@
         <v>0.77443922344677996</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
         <v>37711</v>
       </c>
       <c r="B133">
@@ -6629,8 +6628,8 @@
         <v>0.60869987185664998</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
         <v>37802</v>
       </c>
       <c r="B134">
@@ -6642,8 +6641,8 @@
         <v>0.52263907818592004</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
         <v>37894</v>
       </c>
       <c r="B135">
@@ -6655,8 +6654,8 @@
         <v>0.16098900279629999</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
         <v>37986</v>
       </c>
       <c r="B136">
@@ -6668,8 +6667,8 @@
         <v>9.1724634504196004E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
         <v>38077</v>
       </c>
       <c r="B137">
@@ -6681,8 +6680,8 @@
         <v>-5.9586795509592998E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
         <v>38168</v>
       </c>
       <c r="B138">
@@ -6694,8 +6693,8 @@
         <v>-7.0500830887778004E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="5">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
         <v>38260</v>
       </c>
       <c r="B139">
@@ -6707,8 +6706,8 @@
         <v>-2.2005022619154001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="5">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
         <v>38352</v>
       </c>
       <c r="B140">
@@ -6720,8 +6719,8 @@
         <v>-1.2387241881583E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="5">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
         <v>38442</v>
       </c>
       <c r="B141">
@@ -6733,8 +6732,8 @@
         <v>-6.2591311604912006E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="5">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
         <v>38533</v>
       </c>
       <c r="B142">
@@ -6746,8 +6745,8 @@
         <v>2.7431071446558999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
         <v>38625</v>
       </c>
       <c r="B143">
@@ -6759,8 +6758,8 @@
         <v>-2.4033664399069E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="5">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
         <v>38717</v>
       </c>
       <c r="B144">
@@ -6772,8 +6771,8 @@
         <v>-3.6239575853028998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="5">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
         <v>38807</v>
       </c>
       <c r="B145">
@@ -6785,8 +6784,8 @@
         <v>-5.6546437782202003E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="5">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
         <v>38898</v>
       </c>
       <c r="B146">
@@ -6798,8 +6797,8 @@
         <v>-0.13100219801435001</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="5">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
         <v>38990</v>
       </c>
       <c r="B147">
@@ -6811,8 +6810,8 @@
         <v>-8.5661294021946E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="5">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
         <v>39082</v>
       </c>
       <c r="B148">
@@ -6824,8 +6823,8 @@
         <v>-5.7659384208541997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
         <v>39172</v>
       </c>
       <c r="B149">
@@ -6837,8 +6836,8 @@
         <v>-9.8088738146949003E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="5">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
         <v>39263</v>
       </c>
       <c r="B150">
@@ -6850,8 +6849,8 @@
         <v>-7.6492286043752994E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="5">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
         <v>39355</v>
       </c>
       <c r="B151">
@@ -6863,8 +6862,8 @@
         <v>-2.1604154863096999E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="5">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
         <v>39447</v>
       </c>
       <c r="B152">
@@ -6876,8 +6875,8 @@
         <v>0.14133816282309</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="5">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
         <v>39538</v>
       </c>
       <c r="B153">
@@ -6889,8 +6888,8 @@
         <v>0.16830100043335999</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="5">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
         <v>39629</v>
       </c>
       <c r="B154">
@@ -6902,8 +6901,8 @@
         <v>0.36583940337963</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="5">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
         <v>39721</v>
       </c>
       <c r="B155">
@@ -6915,8 +6914,8 @@
         <v>0.50877561301501995</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="5">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
         <v>39813</v>
       </c>
       <c r="B156">
@@ -6928,8 +6927,8 @@
         <v>0.97581052515046995</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="5">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
         <v>39903</v>
       </c>
       <c r="B157">
@@ -6941,8 +6940,8 @@
         <v>1.7201647454374001</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="5">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
         <v>39994</v>
       </c>
       <c r="B158">
@@ -6954,8 +6953,8 @@
         <v>1.5846851407103</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="5">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
         <v>40086</v>
       </c>
       <c r="B159">
@@ -6967,8 +6966,8 @@
         <v>0.99151284027819997</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="5">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
         <v>40178</v>
       </c>
       <c r="B160">
@@ -6980,8 +6979,8 @@
         <v>0.85110368794044</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="5">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
         <v>40268</v>
       </c>
       <c r="B161">
@@ -6993,8 +6992,8 @@
         <v>0.56031175630315</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="5">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
         <v>40359</v>
       </c>
       <c r="B162">
@@ -7006,8 +7005,8 @@
         <v>0.32125192059597002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="5">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
         <v>40451</v>
       </c>
       <c r="B163">
@@ -7019,8 +7018,8 @@
         <v>0.38738040567415999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="5">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
         <v>40543</v>
       </c>
       <c r="B164">
@@ -7032,8 +7031,8 @@
         <v>0.44417301167266998</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="5">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
         <v>40633</v>
       </c>
       <c r="B165">
@@ -7045,8 +7044,8 @@
         <v>0.17269988252967</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="5">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
         <v>40724</v>
       </c>
       <c r="B166">
@@ -7058,8 +7057,8 @@
         <v>0.18438058502262</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="5">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
         <v>40816</v>
       </c>
       <c r="B167">
@@ -7071,8 +7070,8 @@
         <v>9.9046886271558998E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="5">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
         <v>40908</v>
       </c>
       <c r="B168">
@@ -7084,8 +7083,8 @@
         <v>0.47265711152389001</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="5">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
         <v>40999</v>
       </c>
       <c r="B169">
@@ -7097,8 +7096,8 @@
         <v>0.52003571643159996</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="5">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
         <v>41090</v>
       </c>
       <c r="B170">
@@ -7110,8 +7109,8 @@
         <v>0.34463424458849001</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="5">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
         <v>41182</v>
       </c>
       <c r="B171">
@@ -7123,8 +7122,8 @@
         <v>0.44282780023802998</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="5">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
         <v>41274</v>
       </c>
       <c r="B172">
@@ -7136,8 +7135,8 @@
         <v>0.48007279424956001</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="5">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
         <v>41364</v>
       </c>
       <c r="B173">
@@ -7149,8 +7148,8 @@
         <v>0.32772057493187001</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="5">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
         <v>41455</v>
       </c>
       <c r="B174">
@@ -7162,8 +7161,8 @@
         <v>0.26036232745331001</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="5">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
         <v>41547</v>
       </c>
       <c r="B175">
@@ -7175,8 +7174,8 @@
         <v>0.30657068628377998</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="5">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
         <v>41639</v>
       </c>
       <c r="B176">
@@ -7188,8 +7187,8 @@
         <v>0.14876036604609999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="5">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
         <v>41729</v>
       </c>
       <c r="B177">
@@ -7201,8 +7200,8 @@
         <v>-1.5545089918766001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="5">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
         <v>41820</v>
       </c>
       <c r="B178">
@@ -7214,8 +7213,8 @@
         <v>3.7828648002423998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="5">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
         <v>41912</v>
       </c>
       <c r="B179">
@@ -7227,8 +7226,8 @@
         <v>7.5607952407114001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="5">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
         <v>42004</v>
       </c>
       <c r="B180">
@@ -7240,8 +7239,8 @@
         <v>0.23612727906079001</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="5">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
         <v>42094</v>
       </c>
       <c r="B181">
@@ -7253,8 +7252,8 @@
         <v>0.25202808364950002</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
         <v>42185</v>
       </c>
       <c r="B182">
@@ -7266,8 +7265,8 @@
         <v>0.29470506918938999</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="5">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
         <v>42277</v>
       </c>
       <c r="B183">
@@ -7279,8 +7278,8 @@
         <v>0.24508599616443999</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="5">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
         <v>42369</v>
       </c>
       <c r="B184">
@@ -7292,8 +7291,8 @@
         <v>0.42042623914124999</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="5">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
         <v>42460</v>
       </c>
       <c r="B185">
@@ -7305,8 +7304,8 @@
         <v>0.40751204820362003</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="5">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
         <v>42551</v>
       </c>
       <c r="B186">
@@ -7318,8 +7317,8 @@
         <v>0.42771786570101</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="5">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
         <v>42643</v>
       </c>
       <c r="B187">
@@ -7331,8 +7330,8 @@
         <v>0.31415685034023</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="5">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
         <v>42735</v>
       </c>
       <c r="B188">
@@ -7344,8 +7343,8 @@
         <v>0.34744902117164</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="5">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
         <v>42825</v>
       </c>
       <c r="B189">
@@ -7357,8 +7356,8 @@
         <v>0.29298505031595001</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="5">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
         <v>42916</v>
       </c>
       <c r="B190">
@@ -7370,8 +7369,8 @@
         <v>0.28991773667675003</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="5">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
         <v>43008</v>
       </c>
       <c r="B191">
@@ -7383,8 +7382,8 @@
         <v>0.31950938706038001</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="5">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
         <v>43100</v>
       </c>
       <c r="B192">
@@ -7396,8 +7395,8 @@
         <v>0.27098117527475002</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="5">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
         <v>43190</v>
       </c>
       <c r="B193">
@@ -7409,8 +7408,8 @@
         <v>8.9139613581860996E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="5">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
         <v>43281</v>
       </c>
       <c r="B194">
@@ -7422,8 +7421,8 @@
         <v>0.16456941676025999</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="5">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
         <v>43373</v>
       </c>
       <c r="B195">
@@ -7435,8 +7434,8 @@
         <v>0.10423262782179001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="5">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
         <v>43465</v>
       </c>
       <c r="B196">
@@ -7448,8 +7447,8 @@
         <v>0.13631461516443</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="5">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
         <v>43555</v>
       </c>
       <c r="B197">
@@ -7461,8 +7460,8 @@
         <v>0.26319780250864</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="5">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
         <v>43646</v>
       </c>
       <c r="B198">
@@ -7474,8 +7473,8 @@
         <v>0.23658163484019001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="5">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
         <v>43738</v>
       </c>
       <c r="B199">
@@ -7487,8 +7486,8 @@
         <v>0.3920905457503</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="5">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
         <v>43830</v>
       </c>
       <c r="B200">
@@ -7500,8 +7499,8 @@
         <v>0.51515989472212997</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="5">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
         <f>EOMONTH(A200,3)</f>
         <v>43921</v>
       </c>
@@ -7514,8 +7513,8 @@
         <v>0.44006573478274003</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
         <f t="shared" ref="A202:A216" si="4">EOMONTH(A201,3)</f>
         <v>44012</v>
       </c>
@@ -7528,8 +7527,8 @@
         <v>0.87807609242249995</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="5">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
         <f t="shared" si="4"/>
         <v>44104</v>
       </c>
@@ -7542,8 +7541,8 @@
         <v>0.44644354539885001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="5">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
         <f t="shared" si="4"/>
         <v>44196</v>
       </c>
@@ -7556,8 +7555,8 @@
         <v>0.37164357010104998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="5">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
         <f t="shared" si="4"/>
         <v>44286</v>
       </c>
@@ -7570,8 +7569,8 @@
         <v>-5.3124955847162002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="5">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
         <f t="shared" si="4"/>
         <v>44377</v>
       </c>
@@ -7584,8 +7583,8 @@
         <v>-2.3482889681016E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="5">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
         <f t="shared" si="4"/>
         <v>44469</v>
       </c>
@@ -7598,8 +7597,8 @@
         <v>-9.0043860212062996E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="5">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
         <f t="shared" si="4"/>
         <v>44561</v>
       </c>
@@ -7612,8 +7611,8 @@
         <v>-0.11065301785116</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="5">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
         <f t="shared" si="4"/>
         <v>44651</v>
       </c>
@@ -7626,8 +7625,8 @@
         <v>-0.12529086269553999</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="5">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
         <f t="shared" si="4"/>
         <v>44742</v>
       </c>
@@ -7640,8 +7639,8 @@
         <v>-1.9068744796882E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="5">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
         <f t="shared" si="4"/>
         <v>44834</v>
       </c>
@@ -7654,8 +7653,8 @@
         <v>0.18381489586232999</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="5">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
         <f t="shared" si="4"/>
         <v>44926</v>
       </c>
@@ -7668,8 +7667,8 @@
         <v>0.33585238119475003</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="5">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
         <f t="shared" si="4"/>
         <v>45016</v>
       </c>
@@ -7682,8 +7681,8 @@
         <v>0.49802692732136999</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
         <f t="shared" si="4"/>
         <v>45107</v>
       </c>
@@ -7696,12 +7695,12 @@
         <v>0.57299786639353001</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
         <f>EOMONTH(A214,3)</f>
         <v>45199</v>
       </c>
-      <c r="B215" s="6" t="e">
+      <c r="B215" s="5" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7710,12 +7709,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
         <f t="shared" si="4"/>
         <v>45291</v>
       </c>
-      <c r="B216" s="6" t="e">
+      <c r="B216" s="5" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>

--- a/Data/pvs_updated_Jun2023.xlsx
+++ b/Data/pvs_updated_Jun2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrenne/Dropbox/Research/ECB/Codes_BLR/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ECB business areas\DGE\DMP\CMT\Analytical tools\Zone\TilmanWolfgang\Equilibrium models\Codes_BLR-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AD2C59-25AB-C540-93F0-BC8A61F716D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A1D250-6921-45EC-898A-ECD27D4FEC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -607,7 +607,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
@@ -615,6 +615,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="44">
@@ -726,7 +727,7 @@
             <c:numRef>
               <c:f>pvs!$A$2:$A$214</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="213"/>
                 <c:pt idx="0">
                   <c:v>25749</c:v>
@@ -2044,7 +2045,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -2824,9 +2825,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2864,7 +2865,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2970,7 +2971,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3112,7 +3113,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3126,26 +3127,26 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="36.125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="8.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="119" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -3167,9 +3168,9 @@
       <selection activeCell="A215" sqref="A215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>25749</v>
       </c>
@@ -3185,7 +3186,7 @@
         <v>4.9753101329922E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>25841</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>-0.24251779494101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25933</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>-0.44386007277430001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>26023</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>-0.32586604641432998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>26114</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>-0.17766212288052</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>26206</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>-0.28648396435071999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>26298</v>
       </c>
@@ -3233,7 +3234,7 @@
         <v>-0.39276002683156003</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>26389</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>-0.11571746614577</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>26480</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>-3.2014563556786002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>26572</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>-0.15636388267158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>26664</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>-0.39097995123995</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>26754</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>-0.15851054977223999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>26845</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>-0.25474788531532999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>26937</v>
       </c>
@@ -3289,7 +3290,7 @@
         <v>-0.45540595900748998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>27029</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>-0.57210257661153996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>27119</v>
       </c>
@@ -3305,7 +3306,7 @@
         <v>-0.71305338088313996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>27210</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>-0.64701100403775003</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>27302</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>-0.70860772634586</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>27394</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>-1.4076928065908001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>27484</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>-1.2241196408407</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>27575</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>-0.81766632860498001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>27667</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>-0.40641532503514999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>27759</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>-0.79974697198343003</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27850</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>-0.73221091222675005</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>27941</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>-0.29065117305406002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>28033</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>-0.44977343135997999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28125</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>-0.62243070140877998</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28215</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>-0.46256547332051001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28306</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>-0.29133028860735999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28398</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>-0.39977351430871</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>28490</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>-0.47345916426772</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>28580</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>-0.33554639187313001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>28671</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>-0.11277810775746</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>28763</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>7.4587165819184995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>28855</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>0.15744597800745999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>28945</v>
       </c>
@@ -3465,7 +3466,7 @@
         <v>-2.3956016670218998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>29036</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>2.5854596295403001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>29128</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>6.9106859849325006E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>29220</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>6.7893625282385003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>29311</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>0.38643701298597999</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>29402</v>
       </c>
@@ -3505,7 +3506,7 @@
         <v>0.19395082058641</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>29494</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>0.36955505433571001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>29586</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>0.45683386548735999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>29676</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>0.44363595337099998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>29767</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>0.48199185158645003</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>29859</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>0.63728904385564</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>29951</v>
       </c>
@@ -3553,7 +3554,7 @@
         <v>0.31217014704144003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>30041</v>
       </c>
@@ -3561,7 +3562,7 @@
         <v>0.45390835317584999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>30132</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>0.4368418195912</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>30224</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>0.33636707447610997</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>30316</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>0.33635729637107997</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>30406</v>
       </c>
@@ -3593,7 +3594,7 @@
         <v>0.36740020584837002</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>30497</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>0.47208141772140999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>30589</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>0.52476452076016999</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>30681</v>
       </c>
@@ -3617,7 +3618,7 @@
         <v>0.39643751932642002</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>30772</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>0.47407192731398001</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>30863</v>
       </c>
@@ -3633,7 +3634,7 @@
         <v>0.34407563617422998</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>30955</v>
       </c>
@@ -3641,7 +3642,7 @@
         <v>0.31388795640902001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>31047</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>0.17348685775469999</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>31137</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>0.19802414842815</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>31228</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>0.19300508648409001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>31320</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>4.7604135533878003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31412</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>3.0254963517127999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>31502</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>4.3924402839530001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>31593</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>8.8472389494970993E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>31685</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>4.7493963528084999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>31777</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>-0.12477061327386001</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>31867</v>
       </c>
@@ -3721,7 +3722,7 @@
         <v>-1.5657271340556E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>31958</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>1.2021474771524E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>32050</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>0.13126822785292</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>32142</v>
       </c>
@@ -3745,7 +3746,7 @@
         <v>2.2476807444265001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>32233</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>-6.3492330212420997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>32324</v>
       </c>
@@ -3761,7 +3762,7 @@
         <v>-6.1411366034625998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>32416</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>-3.9852832064303997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>32508</v>
       </c>
@@ -3777,7 +3778,7 @@
         <v>-0.10950775423001</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>32598</v>
       </c>
@@ -3785,7 +3786,7 @@
         <v>-4.3282108549143002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>32689</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>-6.9437269540551003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>32781</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>-8.8056417908987994E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>32873</v>
       </c>
@@ -3809,7 +3810,7 @@
         <v>-0.23691718014394</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>32963</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>-0.17958867047624</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>33054</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>-0.22318681448104999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>33146</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>-0.34888297809341001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>33238</v>
       </c>
@@ -3841,7 +3842,7 @@
         <v>-0.94546416860542004</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>33328</v>
       </c>
@@ -3849,7 +3850,7 @@
         <v>-0.79108960710932996</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>33419</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>-0.42192852248237001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>33511</v>
       </c>
@@ -3865,7 +3866,7 @@
         <v>-0.39327058270641002</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>33603</v>
       </c>
@@ -3873,7 +3874,7 @@
         <v>-0.50640703678029997</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>33694</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>-0.28606166902976998</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>33785</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>-0.23433733109220001</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>33877</v>
       </c>
@@ -3897,7 +3898,7 @@
         <v>-0.31577046510156997</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>33969</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>-0.41440180131024001</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>34059</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>-0.17711812340899</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>34150</v>
       </c>
@@ -3921,7 +3922,7 @@
         <v>-0.22868365345319</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>34242</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>-0.19743719851416999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>34334</v>
       </c>
@@ -3937,7 +3938,7 @@
         <v>-0.14339833790689999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>34424</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>-5.4519308931659002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>34515</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>1.8156494043777002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>34607</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>-2.4461252895149999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>34699</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>-9.9523667218927997E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>34789</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>-0.11513398862951001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>34880</v>
       </c>
@@ -3985,7 +3986,7 @@
         <v>-4.0667398812397997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>34972</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>-6.0005836107922997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>35064</v>
       </c>
@@ -4001,7 +4002,7 @@
         <v>-6.9594898777390002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>35155</v>
       </c>
@@ -4009,7 +4010,7 @@
         <v>-4.3548991964885E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>35246</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>3.7337027735848002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>35338</v>
       </c>
@@ -4025,7 +4026,7 @@
         <v>2.9667175918246001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>35430</v>
       </c>
@@ -4033,7 +4034,7 @@
         <v>-6.4171573144889998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>35520</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>-2.6195614972542001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>35611</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>-4.9396830575958998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>35703</v>
       </c>
@@ -4057,7 +4058,7 @@
         <v>-6.7968603517765E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>35795</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>-5.3586837482922998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>35885</v>
       </c>
@@ -4073,7 +4074,7 @@
         <v>-8.8841575321042004E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>35976</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>-6.2343322280088001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>36068</v>
       </c>
@@ -4089,7 +4090,7 @@
         <v>-2.8999693049229999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>36160</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>-0.26090867334762002</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>36250</v>
       </c>
@@ -4105,7 +4106,7 @@
         <v>-0.17780131902488999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>36341</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>-0.1259493630329</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>36433</v>
       </c>
@@ -4121,7 +4122,7 @@
         <v>-4.1642325907479003E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>36525</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>-8.8870743745639996E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>36616</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>0.25402222672599001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>36707</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>0.20312926268073001</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>36799</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>-6.2266408046716001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>36891</v>
       </c>
@@ -4161,7 +4162,7 @@
         <v>-0.14860790981384001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>36981</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>-0.25341497916932998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>37072</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>-0.30025280231513002</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>37164</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>-0.49969542550749002</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>37256</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>-0.66217116756493999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>37346</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>-0.54036777437898997</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>37437</v>
       </c>
@@ -4209,7 +4210,7 @@
         <v>-0.35625936179121998</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>37529</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>-0.48413671500730998</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>37621</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>-0.77443922344677996</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>37711</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>-0.60869987185664998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>37802</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>-0.52263907818592004</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>37894</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>-0.16098900279629999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>37986</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>-9.1724634504196004E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>38077</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>5.9586795509592998E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>38168</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>7.0500830887778004E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>38260</v>
       </c>
@@ -4281,7 +4282,7 @@
         <v>2.2005022619154001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>38352</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>1.2387241881583E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>38442</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>6.2591311604912006E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>38533</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>-2.7431071446558999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>38625</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>2.4033664399069E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>38717</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>3.6239575853028998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>38807</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>5.6546437782202003E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>38898</v>
       </c>
@@ -4337,7 +4338,7 @@
         <v>0.13100219801435001</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>38990</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>8.5661294021946E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>39082</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>5.7659384208541997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>39172</v>
       </c>
@@ -4361,7 +4362,7 @@
         <v>9.8088738146949003E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>39263</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>7.6492286043752994E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>39355</v>
       </c>
@@ -4377,7 +4378,7 @@
         <v>2.1604154863096999E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>39447</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>-0.14133816282309</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>39538</v>
       </c>
@@ -4393,7 +4394,7 @@
         <v>-0.16830100043335999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>39629</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>-0.36583940337963</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>39721</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>-0.50877561301501995</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>39813</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>-0.97581052515046995</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>39903</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>-1.7201647454374001</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>39994</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>-1.5846851407103</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>40086</v>
       </c>
@@ -4441,7 +4442,7 @@
         <v>-0.99151284027819997</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>40178</v>
       </c>
@@ -4449,7 +4450,7 @@
         <v>-0.85110368794044</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>40268</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>-0.56031175630315</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>40359</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>-0.32125192059597002</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>40451</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>-0.38738040567415999</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>40543</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>-0.44417301167266998</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>40633</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>-0.17269988252967</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>40724</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>-0.18438058502262</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>40816</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>-9.9046886271558998E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>40908</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>-0.47265711152389001</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>40999</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>-0.52003571643159996</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>41090</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>-0.34463424458849001</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>41182</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>-0.44282780023802998</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>41274</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>-0.48007279424956001</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>41364</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>-0.32772057493187001</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>41455</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>-0.26036232745331001</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>41547</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>-0.30657068628377998</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>41639</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>-0.14876036604609999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>41729</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>1.5545089918766001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>41820</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>-3.7828648002423998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>41912</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>-7.5607952407114001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42004</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>-0.23612727906079001</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42094</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>-0.25202808364950002</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42185</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>-0.29470506918938999</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42277</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>-0.24508599616443999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42369</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>-0.42042623914124999</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42460</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>-0.40751204820362003</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42551</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>-0.42771786570101</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>42643</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>-0.31415685034023</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>42735</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>-0.34744902117164</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>42825</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>-0.29298505031595001</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>42916</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>-0.28991773667675003</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43008</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>-0.31950938706038001</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43100</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>-0.27098117527475002</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43190</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>-8.9139613581860996E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43281</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>-0.16456941676025999</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43373</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>-0.10423262782179001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43465</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>-0.13631461516443</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43555</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>-0.26319780250864</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43646</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>-0.23658163484019001</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43738</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>-0.3920905457503</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43830</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>-0.51515989472212997</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43921</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>-0.44006573478274003</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44012</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>-0.87807609242249995</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44104</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>-0.44644354539885001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44196</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>-0.37164357010104998</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>44286</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>5.3124955847162002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>44377</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>2.3482889681016E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>44469</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>9.0043860212062996E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>44561</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>0.11065301785116</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>44651</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>0.12529086269553999</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>44742</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>1.9068744796882E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44834</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>-0.18381489586232999</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>44926</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>-0.33585238119475003</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45016</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>-0.49802692732136999</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45107</v>
       </c>
@@ -4892,17 +4893,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031AC69C-72AB-459B-8DBC-408AE129B425}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="K196" sqref="K196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4912,8 +4913,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>25749</v>
       </c>
       <c r="B2">
@@ -4925,8 +4926,8 @@
         <v>-4.9753101329922E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>25841</v>
       </c>
       <c r="B3">
@@ -4938,8 +4939,8 @@
         <v>0.24251779494101</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>25933</v>
       </c>
       <c r="B4">
@@ -4951,8 +4952,8 @@
         <v>0.44386007277430001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>26023</v>
       </c>
       <c r="B5">
@@ -4964,8 +4965,8 @@
         <v>0.32586604641432998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>26114</v>
       </c>
       <c r="B6">
@@ -4977,8 +4978,8 @@
         <v>0.17766212288052</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>26206</v>
       </c>
       <c r="B7">
@@ -4990,8 +4991,8 @@
         <v>0.28648396435071999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>26298</v>
       </c>
       <c r="B8">
@@ -5003,8 +5004,8 @@
         <v>0.39276002683156003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>26389</v>
       </c>
       <c r="B9">
@@ -5016,8 +5017,8 @@
         <v>0.11571746614577</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>26480</v>
       </c>
       <c r="B10">
@@ -5029,8 +5030,8 @@
         <v>3.2014563556786002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>26572</v>
       </c>
       <c r="B11">
@@ -5042,8 +5043,8 @@
         <v>0.15636388267158</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>26664</v>
       </c>
       <c r="B12">
@@ -5055,8 +5056,8 @@
         <v>0.39097995123995</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>26754</v>
       </c>
       <c r="B13">
@@ -5068,8 +5069,8 @@
         <v>0.15851054977223999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>26845</v>
       </c>
       <c r="B14">
@@ -5081,8 +5082,8 @@
         <v>0.25474788531532999</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>26937</v>
       </c>
       <c r="B15">
@@ -5094,8 +5095,8 @@
         <v>0.45540595900748998</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>27029</v>
       </c>
       <c r="B16">
@@ -5107,8 +5108,8 @@
         <v>0.57210257661153996</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>27119</v>
       </c>
       <c r="B17">
@@ -5120,8 +5121,8 @@
         <v>0.71305338088313996</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>27210</v>
       </c>
       <c r="B18">
@@ -5133,8 +5134,8 @@
         <v>0.64701100403775003</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>27302</v>
       </c>
       <c r="B19">
@@ -5146,8 +5147,8 @@
         <v>0.70860772634586</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>27394</v>
       </c>
       <c r="B20">
@@ -5159,8 +5160,8 @@
         <v>1.4076928065908001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>27484</v>
       </c>
       <c r="B21">
@@ -5172,8 +5173,8 @@
         <v>1.2241196408407</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>27575</v>
       </c>
       <c r="B22">
@@ -5185,8 +5186,8 @@
         <v>0.81766632860498001</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>27667</v>
       </c>
       <c r="B23">
@@ -5198,8 +5199,8 @@
         <v>0.40641532503514999</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>27759</v>
       </c>
       <c r="B24">
@@ -5211,8 +5212,8 @@
         <v>0.79974697198343003</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>27850</v>
       </c>
       <c r="B25">
@@ -5224,8 +5225,8 @@
         <v>0.73221091222675005</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>27941</v>
       </c>
       <c r="B26">
@@ -5237,8 +5238,8 @@
         <v>0.29065117305406002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>28033</v>
       </c>
       <c r="B27">
@@ -5250,8 +5251,8 @@
         <v>0.44977343135997999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>28125</v>
       </c>
       <c r="B28">
@@ -5263,8 +5264,8 @@
         <v>0.62243070140877998</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28215</v>
       </c>
       <c r="B29">
@@ -5276,8 +5277,8 @@
         <v>0.46256547332051001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>28306</v>
       </c>
       <c r="B30">
@@ -5289,8 +5290,8 @@
         <v>0.29133028860735999</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>28398</v>
       </c>
       <c r="B31">
@@ -5302,8 +5303,8 @@
         <v>0.39977351430871</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>28490</v>
       </c>
       <c r="B32">
@@ -5315,8 +5316,8 @@
         <v>0.47345916426772</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>28580</v>
       </c>
       <c r="B33">
@@ -5328,8 +5329,8 @@
         <v>0.33554639187313001</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>28671</v>
       </c>
       <c r="B34">
@@ -5341,8 +5342,8 @@
         <v>0.11277810775746</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>28763</v>
       </c>
       <c r="B35">
@@ -5354,8 +5355,8 @@
         <v>-7.4587165819184995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>28855</v>
       </c>
       <c r="B36">
@@ -5367,8 +5368,8 @@
         <v>-0.15744597800745999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>28945</v>
       </c>
       <c r="B37">
@@ -5380,8 +5381,8 @@
         <v>2.3956016670218998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>29036</v>
       </c>
       <c r="B38">
@@ -5393,8 +5394,8 @@
         <v>-2.5854596295403001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>29128</v>
       </c>
       <c r="B39">
@@ -5406,8 +5407,8 @@
         <v>-6.9106859849325006E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>29220</v>
       </c>
       <c r="B40">
@@ -5419,8 +5420,8 @@
         <v>-6.7893625282385003E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>29311</v>
       </c>
       <c r="B41">
@@ -5432,8 +5433,8 @@
         <v>-0.38643701298597999</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>29402</v>
       </c>
       <c r="B42">
@@ -5445,8 +5446,8 @@
         <v>-0.19395082058641</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>29494</v>
       </c>
       <c r="B43">
@@ -5458,8 +5459,8 @@
         <v>-0.36955505433571001</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>29586</v>
       </c>
       <c r="B44">
@@ -5471,8 +5472,8 @@
         <v>-0.45683386548735999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>29676</v>
       </c>
       <c r="B45">
@@ -5484,8 +5485,8 @@
         <v>-0.44363595337099998</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>29767</v>
       </c>
       <c r="B46">
@@ -5497,8 +5498,8 @@
         <v>-0.48199185158645003</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>29859</v>
       </c>
       <c r="B47">
@@ -5510,8 +5511,8 @@
         <v>-0.63728904385564</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>29951</v>
       </c>
       <c r="B48">
@@ -5523,8 +5524,8 @@
         <v>-0.31217014704144003</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>30041</v>
       </c>
       <c r="B49">
@@ -5536,8 +5537,8 @@
         <v>-0.45390835317584999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>30132</v>
       </c>
       <c r="B50">
@@ -5549,8 +5550,8 @@
         <v>-0.4368418195912</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>30224</v>
       </c>
       <c r="B51">
@@ -5562,8 +5563,8 @@
         <v>-0.33636707447610997</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>30316</v>
       </c>
       <c r="B52">
@@ -5575,8 +5576,8 @@
         <v>-0.33635729637107997</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>30406</v>
       </c>
       <c r="B53">
@@ -5588,8 +5589,8 @@
         <v>-0.36740020584837002</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>30497</v>
       </c>
       <c r="B54">
@@ -5601,8 +5602,8 @@
         <v>-0.47208141772140999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>30589</v>
       </c>
       <c r="B55">
@@ -5614,8 +5615,8 @@
         <v>-0.52476452076016999</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>30681</v>
       </c>
       <c r="B56">
@@ -5627,8 +5628,8 @@
         <v>-0.39643751932642002</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>30772</v>
       </c>
       <c r="B57">
@@ -5640,8 +5641,8 @@
         <v>-0.47407192731398001</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>30863</v>
       </c>
       <c r="B58">
@@ -5653,8 +5654,8 @@
         <v>-0.34407563617422998</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>30955</v>
       </c>
       <c r="B59">
@@ -5666,8 +5667,8 @@
         <v>-0.31388795640902001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>31047</v>
       </c>
       <c r="B60">
@@ -5679,8 +5680,8 @@
         <v>-0.17348685775469999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>31137</v>
       </c>
       <c r="B61">
@@ -5692,8 +5693,8 @@
         <v>-0.19802414842815</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>31228</v>
       </c>
       <c r="B62">
@@ -5705,8 +5706,8 @@
         <v>-0.19300508648409001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>31320</v>
       </c>
       <c r="B63">
@@ -5718,8 +5719,8 @@
         <v>-4.7604135533878003E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>31412</v>
       </c>
       <c r="B64">
@@ -5731,8 +5732,8 @@
         <v>-3.0254963517127999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>31502</v>
       </c>
       <c r="B65">
@@ -5744,8 +5745,8 @@
         <v>-4.3924402839530001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>31593</v>
       </c>
       <c r="B66">
@@ -5757,8 +5758,8 @@
         <v>-8.8472389494970993E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>31685</v>
       </c>
       <c r="B67">
@@ -5770,8 +5771,8 @@
         <v>-4.7493963528084999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>31777</v>
       </c>
       <c r="B68">
@@ -5783,8 +5784,8 @@
         <v>0.12477061327386001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>31867</v>
       </c>
       <c r="B69">
@@ -5796,8 +5797,8 @@
         <v>1.5657271340556E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>31958</v>
       </c>
       <c r="B70">
@@ -5809,8 +5810,8 @@
         <v>-1.2021474771524E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>32050</v>
       </c>
       <c r="B71">
@@ -5822,8 +5823,8 @@
         <v>-0.13126822785292</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>32142</v>
       </c>
       <c r="B72">
@@ -5835,8 +5836,8 @@
         <v>-2.2476807444265001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>32233</v>
       </c>
       <c r="B73">
@@ -5848,8 +5849,8 @@
         <v>6.3492330212420997E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>32324</v>
       </c>
       <c r="B74">
@@ -5861,8 +5862,8 @@
         <v>6.1411366034625998E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>32416</v>
       </c>
       <c r="B75">
@@ -5874,8 +5875,8 @@
         <v>3.9852832064303997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>32508</v>
       </c>
       <c r="B76">
@@ -5887,8 +5888,8 @@
         <v>0.10950775423001</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>32598</v>
       </c>
       <c r="B77">
@@ -5900,8 +5901,8 @@
         <v>4.3282108549143002E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>32689</v>
       </c>
       <c r="B78">
@@ -5913,8 +5914,8 @@
         <v>6.9437269540551003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>32781</v>
       </c>
       <c r="B79">
@@ -5926,8 +5927,8 @@
         <v>8.8056417908987994E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>32873</v>
       </c>
       <c r="B80">
@@ -5939,8 +5940,8 @@
         <v>0.23691718014394</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>32963</v>
       </c>
       <c r="B81">
@@ -5952,8 +5953,8 @@
         <v>0.17958867047624</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>33054</v>
       </c>
       <c r="B82">
@@ -5965,8 +5966,8 @@
         <v>0.22318681448104999</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>33146</v>
       </c>
       <c r="B83">
@@ -5978,8 +5979,8 @@
         <v>0.34888297809341001</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>33238</v>
       </c>
       <c r="B84">
@@ -5991,8 +5992,8 @@
         <v>0.94546416860542004</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>33328</v>
       </c>
       <c r="B85">
@@ -6004,8 +6005,8 @@
         <v>0.79108960710932996</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>33419</v>
       </c>
       <c r="B86">
@@ -6017,8 +6018,8 @@
         <v>0.42192852248237001</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>33511</v>
       </c>
       <c r="B87">
@@ -6030,8 +6031,8 @@
         <v>0.39327058270641002</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
         <v>33603</v>
       </c>
       <c r="B88">
@@ -6043,8 +6044,8 @@
         <v>0.50640703678029997</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>33694</v>
       </c>
       <c r="B89">
@@ -6056,8 +6057,8 @@
         <v>0.28606166902976998</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
         <v>33785</v>
       </c>
       <c r="B90">
@@ -6069,8 +6070,8 @@
         <v>0.23433733109220001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
         <v>33877</v>
       </c>
       <c r="B91">
@@ -6082,8 +6083,8 @@
         <v>0.31577046510156997</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
         <v>33969</v>
       </c>
       <c r="B92">
@@ -6095,8 +6096,8 @@
         <v>0.41440180131024001</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
         <v>34059</v>
       </c>
       <c r="B93">
@@ -6108,8 +6109,8 @@
         <v>0.17711812340899</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
         <v>34150</v>
       </c>
       <c r="B94">
@@ -6121,8 +6122,8 @@
         <v>0.22868365345319</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
         <v>34242</v>
       </c>
       <c r="B95">
@@ -6134,8 +6135,8 @@
         <v>0.19743719851416999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
         <v>34334</v>
       </c>
       <c r="B96">
@@ -6147,8 +6148,8 @@
         <v>0.14339833790689999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
         <v>34424</v>
       </c>
       <c r="B97">
@@ -6160,8 +6161,8 @@
         <v>5.4519308931659002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
         <v>34515</v>
       </c>
       <c r="B98">
@@ -6173,8 +6174,8 @@
         <v>-1.8156494043777002E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
         <v>34607</v>
       </c>
       <c r="B99">
@@ -6186,8 +6187,8 @@
         <v>2.4461252895149999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
         <v>34699</v>
       </c>
       <c r="B100">
@@ -6199,8 +6200,8 @@
         <v>9.9523667218927997E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
         <v>34789</v>
       </c>
       <c r="B101">
@@ -6212,8 +6213,8 @@
         <v>0.11513398862951001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
         <v>34880</v>
       </c>
       <c r="B102">
@@ -6225,8 +6226,8 @@
         <v>4.0667398812397997E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
         <v>34972</v>
       </c>
       <c r="B103">
@@ -6238,8 +6239,8 @@
         <v>6.0005836107922997E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
         <v>35064</v>
       </c>
       <c r="B104">
@@ -6251,8 +6252,8 @@
         <v>6.9594898777390002E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
         <v>35155</v>
       </c>
       <c r="B105">
@@ -6264,8 +6265,8 @@
         <v>4.3548991964885E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
         <v>35246</v>
       </c>
       <c r="B106">
@@ -6277,8 +6278,8 @@
         <v>-3.7337027735848002E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
         <v>35338</v>
       </c>
       <c r="B107">
@@ -6290,8 +6291,8 @@
         <v>-2.9667175918246001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="5">
         <v>35430</v>
       </c>
       <c r="B108">
@@ -6303,8 +6304,8 @@
         <v>6.4171573144889998E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="5">
         <v>35520</v>
       </c>
       <c r="B109">
@@ -6316,8 +6317,8 @@
         <v>2.6195614972542001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="5">
         <v>35611</v>
       </c>
       <c r="B110">
@@ -6329,8 +6330,8 @@
         <v>4.9396830575958998E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5">
         <v>35703</v>
       </c>
       <c r="B111">
@@ -6342,8 +6343,8 @@
         <v>6.7968603517765E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="5">
         <v>35795</v>
       </c>
       <c r="B112">
@@ -6355,8 +6356,8 @@
         <v>5.3586837482922998E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5">
         <v>35885</v>
       </c>
       <c r="B113">
@@ -6368,8 +6369,8 @@
         <v>8.8841575321042004E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="5">
         <v>35976</v>
       </c>
       <c r="B114">
@@ -6381,8 +6382,8 @@
         <v>6.2343322280088001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5">
         <v>36068</v>
       </c>
       <c r="B115">
@@ -6394,8 +6395,8 @@
         <v>2.8999693049229999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="5">
         <v>36160</v>
       </c>
       <c r="B116">
@@ -6407,8 +6408,8 @@
         <v>0.26090867334762002</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5">
         <v>36250</v>
       </c>
       <c r="B117">
@@ -6420,8 +6421,8 @@
         <v>0.17780131902488999</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="5">
         <v>36341</v>
       </c>
       <c r="B118">
@@ -6433,8 +6434,8 @@
         <v>0.1259493630329</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5">
         <v>36433</v>
       </c>
       <c r="B119">
@@ -6446,8 +6447,8 @@
         <v>4.1642325907479003E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="5">
         <v>36525</v>
       </c>
       <c r="B120">
@@ -6459,8 +6460,8 @@
         <v>8.8870743745639996E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5">
         <v>36616</v>
       </c>
       <c r="B121">
@@ -6472,8 +6473,8 @@
         <v>-0.25402222672599001</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="5">
         <v>36707</v>
       </c>
       <c r="B122">
@@ -6485,8 +6486,8 @@
         <v>-0.20312926268073001</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5">
         <v>36799</v>
       </c>
       <c r="B123">
@@ -6498,8 +6499,8 @@
         <v>6.2266408046716001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="5">
         <v>36891</v>
       </c>
       <c r="B124">
@@ -6511,8 +6512,8 @@
         <v>0.14860790981384001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="5">
         <v>36981</v>
       </c>
       <c r="B125">
@@ -6524,8 +6525,8 @@
         <v>0.25341497916932998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="5">
         <v>37072</v>
       </c>
       <c r="B126">
@@ -6537,8 +6538,8 @@
         <v>0.30025280231513002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="5">
         <v>37164</v>
       </c>
       <c r="B127">
@@ -6550,8 +6551,8 @@
         <v>0.49969542550749002</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="5">
         <v>37256</v>
       </c>
       <c r="B128">
@@ -6563,8 +6564,8 @@
         <v>0.66217116756493999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="5">
         <v>37346</v>
       </c>
       <c r="B129">
@@ -6576,8 +6577,8 @@
         <v>0.54036777437898997</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5">
         <v>37437</v>
       </c>
       <c r="B130">
@@ -6589,8 +6590,8 @@
         <v>0.35625936179121998</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="5">
         <v>37529</v>
       </c>
       <c r="B131">
@@ -6602,8 +6603,8 @@
         <v>0.48413671500730998</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="5">
         <v>37621</v>
       </c>
       <c r="B132">
@@ -6615,8 +6616,8 @@
         <v>0.77443922344677996</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="5">
         <v>37711</v>
       </c>
       <c r="B133">
@@ -6628,8 +6629,8 @@
         <v>0.60869987185664998</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="5">
         <v>37802</v>
       </c>
       <c r="B134">
@@ -6641,8 +6642,8 @@
         <v>0.52263907818592004</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="5">
         <v>37894</v>
       </c>
       <c r="B135">
@@ -6654,8 +6655,8 @@
         <v>0.16098900279629999</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="5">
         <v>37986</v>
       </c>
       <c r="B136">
@@ -6667,8 +6668,8 @@
         <v>9.1724634504196004E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="5">
         <v>38077</v>
       </c>
       <c r="B137">
@@ -6680,8 +6681,8 @@
         <v>-5.9586795509592998E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="5">
         <v>38168</v>
       </c>
       <c r="B138">
@@ -6693,8 +6694,8 @@
         <v>-7.0500830887778004E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="5">
         <v>38260</v>
       </c>
       <c r="B139">
@@ -6706,8 +6707,8 @@
         <v>-2.2005022619154001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="5">
         <v>38352</v>
       </c>
       <c r="B140">
@@ -6719,8 +6720,8 @@
         <v>-1.2387241881583E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="5">
         <v>38442</v>
       </c>
       <c r="B141">
@@ -6732,8 +6733,8 @@
         <v>-6.2591311604912006E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="5">
         <v>38533</v>
       </c>
       <c r="B142">
@@ -6745,8 +6746,8 @@
         <v>2.7431071446558999E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="5">
         <v>38625</v>
       </c>
       <c r="B143">
@@ -6758,8 +6759,8 @@
         <v>-2.4033664399069E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="5">
         <v>38717</v>
       </c>
       <c r="B144">
@@ -6771,8 +6772,8 @@
         <v>-3.6239575853028998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="5">
         <v>38807</v>
       </c>
       <c r="B145">
@@ -6784,8 +6785,8 @@
         <v>-5.6546437782202003E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="5">
         <v>38898</v>
       </c>
       <c r="B146">
@@ -6797,8 +6798,8 @@
         <v>-0.13100219801435001</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="5">
         <v>38990</v>
       </c>
       <c r="B147">
@@ -6810,8 +6811,8 @@
         <v>-8.5661294021946E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="5">
         <v>39082</v>
       </c>
       <c r="B148">
@@ -6823,8 +6824,8 @@
         <v>-5.7659384208541997E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
         <v>39172</v>
       </c>
       <c r="B149">
@@ -6836,8 +6837,8 @@
         <v>-9.8088738146949003E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="5">
         <v>39263</v>
       </c>
       <c r="B150">
@@ -6849,8 +6850,8 @@
         <v>-7.6492286043752994E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="5">
         <v>39355</v>
       </c>
       <c r="B151">
@@ -6862,8 +6863,8 @@
         <v>-2.1604154863096999E-4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="5">
         <v>39447</v>
       </c>
       <c r="B152">
@@ -6875,8 +6876,8 @@
         <v>0.14133816282309</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="5">
         <v>39538</v>
       </c>
       <c r="B153">
@@ -6888,8 +6889,8 @@
         <v>0.16830100043335999</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="5">
         <v>39629</v>
       </c>
       <c r="B154">
@@ -6901,8 +6902,8 @@
         <v>0.36583940337963</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="5">
         <v>39721</v>
       </c>
       <c r="B155">
@@ -6914,8 +6915,8 @@
         <v>0.50877561301501995</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="5">
         <v>39813</v>
       </c>
       <c r="B156">
@@ -6927,8 +6928,8 @@
         <v>0.97581052515046995</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="5">
         <v>39903</v>
       </c>
       <c r="B157">
@@ -6940,8 +6941,8 @@
         <v>1.7201647454374001</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="5">
         <v>39994</v>
       </c>
       <c r="B158">
@@ -6953,8 +6954,8 @@
         <v>1.5846851407103</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="5">
         <v>40086</v>
       </c>
       <c r="B159">
@@ -6966,8 +6967,8 @@
         <v>0.99151284027819997</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="5">
         <v>40178</v>
       </c>
       <c r="B160">
@@ -6979,8 +6980,8 @@
         <v>0.85110368794044</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5">
         <v>40268</v>
       </c>
       <c r="B161">
@@ -6992,8 +6993,8 @@
         <v>0.56031175630315</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="5">
         <v>40359</v>
       </c>
       <c r="B162">
@@ -7005,8 +7006,8 @@
         <v>0.32125192059597002</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="5">
         <v>40451</v>
       </c>
       <c r="B163">
@@ -7018,8 +7019,8 @@
         <v>0.38738040567415999</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="5">
         <v>40543</v>
       </c>
       <c r="B164">
@@ -7031,8 +7032,8 @@
         <v>0.44417301167266998</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="5">
         <v>40633</v>
       </c>
       <c r="B165">
@@ -7044,8 +7045,8 @@
         <v>0.17269988252967</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="5">
         <v>40724</v>
       </c>
       <c r="B166">
@@ -7057,8 +7058,8 @@
         <v>0.18438058502262</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="5">
         <v>40816</v>
       </c>
       <c r="B167">
@@ -7070,8 +7071,8 @@
         <v>9.9046886271558998E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="5">
         <v>40908</v>
       </c>
       <c r="B168">
@@ -7083,8 +7084,8 @@
         <v>0.47265711152389001</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="5">
         <v>40999</v>
       </c>
       <c r="B169">
@@ -7096,8 +7097,8 @@
         <v>0.52003571643159996</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5">
         <v>41090</v>
       </c>
       <c r="B170">
@@ -7109,8 +7110,8 @@
         <v>0.34463424458849001</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="5">
         <v>41182</v>
       </c>
       <c r="B171">
@@ -7122,8 +7123,8 @@
         <v>0.44282780023802998</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="5">
         <v>41274</v>
       </c>
       <c r="B172">
@@ -7135,8 +7136,8 @@
         <v>0.48007279424956001</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="5">
         <v>41364</v>
       </c>
       <c r="B173">
@@ -7148,8 +7149,8 @@
         <v>0.32772057493187001</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
         <v>41455</v>
       </c>
       <c r="B174">
@@ -7161,8 +7162,8 @@
         <v>0.26036232745331001</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="5">
         <v>41547</v>
       </c>
       <c r="B175">
@@ -7174,8 +7175,8 @@
         <v>0.30657068628377998</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="5">
         <v>41639</v>
       </c>
       <c r="B176">
@@ -7187,8 +7188,8 @@
         <v>0.14876036604609999</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="5">
         <v>41729</v>
       </c>
       <c r="B177">
@@ -7200,8 +7201,8 @@
         <v>-1.5545089918766001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="5">
         <v>41820</v>
       </c>
       <c r="B178">
@@ -7213,8 +7214,8 @@
         <v>3.7828648002423998E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="5">
         <v>41912</v>
       </c>
       <c r="B179">
@@ -7226,8 +7227,8 @@
         <v>7.5607952407114001E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="5">
         <v>42004</v>
       </c>
       <c r="B180">
@@ -7239,8 +7240,8 @@
         <v>0.23612727906079001</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="5">
         <v>42094</v>
       </c>
       <c r="B181">
@@ -7252,8 +7253,8 @@
         <v>0.25202808364950002</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="5">
         <v>42185</v>
       </c>
       <c r="B182">
@@ -7265,8 +7266,8 @@
         <v>0.29470506918938999</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5">
         <v>42277</v>
       </c>
       <c r="B183">
@@ -7278,8 +7279,8 @@
         <v>0.24508599616443999</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="5">
         <v>42369</v>
       </c>
       <c r="B184">
@@ -7291,8 +7292,8 @@
         <v>0.42042623914124999</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="5">
         <v>42460</v>
       </c>
       <c r="B185">
@@ -7304,8 +7305,8 @@
         <v>0.40751204820362003</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="5">
         <v>42551</v>
       </c>
       <c r="B186">
@@ -7317,8 +7318,8 @@
         <v>0.42771786570101</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="5">
         <v>42643</v>
       </c>
       <c r="B187">
@@ -7330,8 +7331,8 @@
         <v>0.31415685034023</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="5">
         <v>42735</v>
       </c>
       <c r="B188">
@@ -7343,8 +7344,8 @@
         <v>0.34744902117164</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="5">
         <v>42825</v>
       </c>
       <c r="B189">
@@ -7356,8 +7357,8 @@
         <v>0.29298505031595001</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="5">
         <v>42916</v>
       </c>
       <c r="B190">
@@ -7369,8 +7370,8 @@
         <v>0.28991773667675003</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="5">
         <v>43008</v>
       </c>
       <c r="B191">
@@ -7382,8 +7383,8 @@
         <v>0.31950938706038001</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="5">
         <v>43100</v>
       </c>
       <c r="B192">
@@ -7395,8 +7396,8 @@
         <v>0.27098117527475002</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5">
         <v>43190</v>
       </c>
       <c r="B193">
@@ -7408,8 +7409,8 @@
         <v>8.9139613581860996E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
         <v>43281</v>
       </c>
       <c r="B194">
@@ -7421,8 +7422,8 @@
         <v>0.16456941676025999</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5">
         <v>43373</v>
       </c>
       <c r="B195">
@@ -7434,8 +7435,8 @@
         <v>0.10423262782179001</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="5">
         <v>43465</v>
       </c>
       <c r="B196">
@@ -7447,8 +7448,8 @@
         <v>0.13631461516443</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5">
         <v>43555</v>
       </c>
       <c r="B197">
@@ -7460,8 +7461,8 @@
         <v>0.26319780250864</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="5">
         <v>43646</v>
       </c>
       <c r="B198">
@@ -7473,8 +7474,8 @@
         <v>0.23658163484019001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5">
         <v>43738</v>
       </c>
       <c r="B199">
@@ -7486,8 +7487,8 @@
         <v>0.3920905457503</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="5">
         <v>43830</v>
       </c>
       <c r="B200">
@@ -7499,8 +7500,8 @@
         <v>0.51515989472212997</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="5">
         <f>EOMONTH(A200,3)</f>
         <v>43921</v>
       </c>
@@ -7513,8 +7514,8 @@
         <v>0.44006573478274003</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5">
         <f t="shared" ref="A202:A216" si="4">EOMONTH(A201,3)</f>
         <v>44012</v>
       </c>
@@ -7527,8 +7528,8 @@
         <v>0.87807609242249995</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="5">
         <f t="shared" si="4"/>
         <v>44104</v>
       </c>
@@ -7541,8 +7542,8 @@
         <v>0.44644354539885001</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
         <f t="shared" si="4"/>
         <v>44196</v>
       </c>
@@ -7555,8 +7556,8 @@
         <v>0.37164357010104998</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="5">
         <f t="shared" si="4"/>
         <v>44286</v>
       </c>
@@ -7569,8 +7570,8 @@
         <v>-5.3124955847162002E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="5">
         <f t="shared" si="4"/>
         <v>44377</v>
       </c>
@@ -7583,8 +7584,8 @@
         <v>-2.3482889681016E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="5">
         <f t="shared" si="4"/>
         <v>44469</v>
       </c>
@@ -7597,8 +7598,8 @@
         <v>-9.0043860212062996E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
         <f t="shared" si="4"/>
         <v>44561</v>
       </c>
@@ -7611,8 +7612,8 @@
         <v>-0.11065301785116</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="5">
         <f t="shared" si="4"/>
         <v>44651</v>
       </c>
@@ -7625,8 +7626,8 @@
         <v>-0.12529086269553999</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="5">
         <f t="shared" si="4"/>
         <v>44742</v>
       </c>
@@ -7639,8 +7640,8 @@
         <v>-1.9068744796882E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="5">
         <f t="shared" si="4"/>
         <v>44834</v>
       </c>
@@ -7653,8 +7654,8 @@
         <v>0.18381489586232999</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="5">
         <f t="shared" si="4"/>
         <v>44926</v>
       </c>
@@ -7667,8 +7668,8 @@
         <v>0.33585238119475003</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5">
         <f t="shared" si="4"/>
         <v>45016</v>
       </c>
@@ -7681,8 +7682,8 @@
         <v>0.49802692732136999</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="5">
         <f t="shared" si="4"/>
         <v>45107</v>
       </c>
@@ -7695,12 +7696,12 @@
         <v>0.57299786639353001</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="5">
         <f>EOMONTH(A214,3)</f>
         <v>45199</v>
       </c>
-      <c r="B215" s="5" t="e">
+      <c r="B215" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -7709,12 +7710,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="5">
         <f t="shared" si="4"/>
         <v>45291</v>
       </c>
-      <c r="B216" s="5" t="e">
+      <c r="B216" s="6" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
